--- a/classfiers/chatty/multinomialNB/chatty-multinomialNB-results.xlsx
+++ b/classfiers/chatty/multinomialNB/chatty-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7420289855072464</v>
+        <v>0.9879807692307692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4912405423246839</v>
+        <v>0.8272506082725061</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7420289855072463</v>
+        <v>0.9879807692307692</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6615942028985506</v>
+        <v>0.8100961538461539</v>
       </c>
       <c r="D3" t="n">
-        <v>0.419097481924707</v>
+        <v>0.4389690927883173</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6615942028985508</v>
+        <v>0.8100961538461539</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9039301310043668</v>
+        <v>0.4864734299516909</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5237829803047194</v>
+        <v>0.4501347708894879</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9039301310043668</v>
+        <v>0.4864734299516908</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9912663755458515</v>
+        <v>0.7439613526570048</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7955947136563877</v>
+        <v>0.37102552619794</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9912663755458515</v>
+        <v>0.7439613526570048</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.982532751091703</v>
+        <v>0.7502415458937198</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7053968253968255</v>
+        <v>0.4671029006902605</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9825327510917031</v>
+        <v>0.7502415458937198</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1709555876222543</v>
+        <v>0.1372016497016497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8562704892095436</v>
+        <v>0.7557506503158676</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5870225087214647</v>
+        <v>0.5108965797677023</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8562704892095437</v>
+        <v>0.7557506503158676</v>
       </c>
     </row>
   </sheetData>
